--- a/Projekt beskrivelse/Gantt-chart.xlsx
+++ b/Projekt beskrivelse/Gantt-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Malouovlesen/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29EFF73-BD36-3E4B-BF01-D16820DB2F71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D8A4D2-1ACC-C64F-BAA9-F87061F3CE75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="520" windowWidth="28540" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="28620" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -153,58 +153,58 @@
     </r>
   </si>
   <si>
-    <t>Analyse the project in a Word document</t>
-  </si>
-  <si>
-    <t>Make a Gantt chart</t>
-  </si>
-  <si>
-    <t>Create a repository on gitHub for the project</t>
-  </si>
-  <si>
-    <t>Design the JSON data structure</t>
-  </si>
-  <si>
-    <t>Create the necessary files for the website</t>
-  </si>
-  <si>
-    <t>Code the "Brands" page HTML + CSS</t>
-  </si>
-  <si>
-    <t>Create a project in your repository and add all these issues</t>
-  </si>
-  <si>
-    <t>Code the "Shop" front page HTML + CSS</t>
-  </si>
-  <si>
-    <t>Write the JSON file which contains data on all the products</t>
-  </si>
-  <si>
-    <t>Code the "Shop" main page HTML + CSS + JS</t>
-  </si>
-  <si>
-    <t>Code the "Shop" individual product page HTML + CSS + JS</t>
-  </si>
-  <si>
-    <t>Get/find/create and edit image material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code the "Home" page HTML + CSS + JS </t>
-  </si>
-  <si>
-    <t>Code the main HTML structure - Header, Nav, Footer + Necessary CSS</t>
-  </si>
-  <si>
-    <t>(Code the extra challange)</t>
-  </si>
-  <si>
-    <t>Code the product search function</t>
-  </si>
-  <si>
-    <t>Analyse the design in previous mentioned document</t>
-  </si>
-  <si>
     <t>Gantt chart for Hi-fi Corner</t>
+  </si>
+  <si>
+    <t>Lavet repository på Gihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse af design </t>
+  </si>
+  <si>
+    <t>Projekt beskrivelse</t>
+  </si>
+  <si>
+    <t>Lave Gantt chart</t>
+  </si>
+  <si>
+    <t>Lave kanban board</t>
+  </si>
+  <si>
+    <t>Lave JSON filer</t>
+  </si>
+  <si>
+    <t>Start fil struktur for website</t>
+  </si>
+  <si>
+    <t>Billede materiale</t>
+  </si>
+  <si>
+    <t>Kode base-website (HTML)</t>
+  </si>
+  <si>
+    <t>Kode mainpage (HTML, CSS, JS)</t>
+  </si>
+  <si>
+    <t>Kode brands side</t>
+  </si>
+  <si>
+    <t>Kode shop side</t>
+  </si>
+  <si>
+    <t>Skriv JSON filer</t>
+  </si>
+  <si>
+    <t>Kode shop mainpage</t>
+  </si>
+  <si>
+    <t>Kode shop produkt side</t>
+  </si>
+  <si>
+    <t>Kode søge funktion</t>
+  </si>
+  <si>
+    <t>Test af wesbite</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="B1:BO21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="5" spans="2:67" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="6" spans="2:67" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="7" spans="2:67" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18">
         <v>4</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="18">
         <v>6</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="9" spans="2:67" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18">
         <v>8</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="10" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="18">
         <v>10</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="11" spans="2:67" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="18">
         <v>12</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="12" spans="2:67" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="18">
         <v>13</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="13" spans="2:67" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18">
         <v>23</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="14" spans="2:67" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="18">
         <v>26</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="15" spans="2:67" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="18">
         <v>30</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="16" spans="2:67" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="18">
         <v>32</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="17" spans="2:7" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="18">
         <v>34</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="18">
         <v>44</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="19" spans="2:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" s="18">
         <v>54</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="20" spans="2:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="18">
         <v>59</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="21" spans="2:7" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" s="18">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D21" s="18">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>

--- a/Projekt beskrivelse/Gantt-chart.xlsx
+++ b/Projekt beskrivelse/Gantt-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Malouovlesen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Malouovlesen/Documents/Webudvikler/Github/malou-oevlesen-hifi-website/Projekt beskrivelse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D8A4D2-1ACC-C64F-BAA9-F87061F3CE75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D260B831-119C-1341-9C4E-58E7724D6B58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="28620" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28620" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -1020,10 +1020,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO21"/>
+  <dimension ref="B1:BW21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="CB19" sqref="CB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,9 +1039,10 @@
     <col min="21" max="27" width="2.83203125" style="1"/>
     <col min="33" max="33" width="2.83203125" customWidth="1"/>
     <col min="42" max="42" width="2.83203125" customWidth="1"/>
+    <col min="68" max="75" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:75" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1052,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:75" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:75" s="8" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1152,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1338,8 +1339,32 @@
       <c r="BO4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BP4" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:75" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:75" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:75" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:75" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:75" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1462,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="2:67" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:75" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:75" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:75" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:75" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:75" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:75" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1557,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:75" ht="40.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:75" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:75" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:75" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
@@ -1637,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:75" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:75" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
@@ -1676,6 +1701,54 @@
       <c r="G21" s="20">
         <v>0</v>
       </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1692,7 +1765,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO21">
+  <conditionalFormatting sqref="H5:BW21">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1723,7 +1796,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:BW4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
